--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>2025-10-20</t>
+  </si>
+  <si>
+    <t>John28</t>
+  </si>
+  <si>
+    <t>John41</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1239,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="48">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>John41</t>
+  </si>
+  <si>
+    <t>John99</t>
+  </si>
+  <si>
+    <t>John1</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1245,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="49">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>John1</t>
+  </si>
+  <si>
+    <t>John20</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1248,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
